--- a/biology/Médecine/Molécule_synthétique/Molécule_synthétique.xlsx
+++ b/biology/Médecine/Molécule_synthétique/Molécule_synthétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A9cule_synth%C3%A9tique</t>
+          <t>Molécule_synthétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En chimie organique, les molécules synthétiques sont préparées par synthèse totale. Leur variété est considérable.
 Les polymères sont les ingrédients de base des matières plastiques et des caoutchoucs. Ce sont souvent des composés organiques synthétisés à partir de combustibles fossiles. Voir aussi Modification chimique d'un polymère.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A9cule_synth%C3%A9tique</t>
+          <t>Molécule_synthétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L'acide acétylsalicylique (aspirine) est une molécule de synthèse.
